--- a/DATA_goal/Junction_Flooding_135.xlsx
+++ b/DATA_goal/Junction_Flooding_135.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41567.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.2</v>
+        <v>4.12</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.19</v>
+        <v>3.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>48.58</v>
+        <v>4.86</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>223.84</v>
+        <v>22.38</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.23</v>
+        <v>4.22</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.86</v>
+        <v>2.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.58</v>
+        <v>2.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.09</v>
+        <v>4.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41567.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.24</v>
+        <v>3.92</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.88</v>
+        <v>3.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55</v>
+        <v>5.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>209</v>
+        <v>20.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.77</v>
+        <v>3.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.46</v>
+        <v>2.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.75</v>
+        <v>2.68</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.01</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41567.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>40.81</v>
+        <v>4.08</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
       <c r="AA4" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41567.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41567.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41567.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>44.11</v>
+        <v>4.41</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41567.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>42.41</v>
+        <v>4.24</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>34.83</v>
+        <v>3.48</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>54.05</v>
+        <v>5.41</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.51</v>
+        <v>1.05</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.73</v>
+        <v>2.17</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>225</v>
+        <v>22.5</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>42.56</v>
+        <v>4.26</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>28.68</v>
+        <v>2.87</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>48.93</v>
+        <v>4.89</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41567.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V9" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>24.71</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>72.81999999999999</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>4.86</v>
-      </c>
       <c r="W9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.85</v>
+        <v>0.38</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>22.82</v>
+        <v>2.28</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41567.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>38.23</v>
+        <v>3.82</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>31.43</v>
+        <v>3.14</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>51.18</v>
+        <v>5.12</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>15.35</v>
+        <v>1.54</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>202.11</v>
+        <v>20.21</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>38.4</v>
+        <v>3.84</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>25.89</v>
+        <v>2.59</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>25.2</v>
+        <v>2.52</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>46.28</v>
+        <v>4.63</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_135.xlsx
+++ b/DATA_goal/Junction_Flooding_135.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41567.34027777778</v>
+        <v>44816.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.12</v>
+        <v>4.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.86</v>
+        <v>5.88</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.38</v>
+        <v>26.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.79</v>
+        <v>3.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.31</v>
+        <v>5.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41567.34722222222</v>
+        <v>44816.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.92</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.19</v>
+        <v>0.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.11</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.5</v>
+        <v>1.23</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.2</v>
+        <v>0.17</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.08</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.11</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.01</v>
+        <v>0.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.13</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.04</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.1</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5</v>
+        <v>1.16</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41567.35416666666</v>
+        <v>44816.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.4</v>
+        <v>1.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.82</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.87</v>
+        <v>2.47</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.67</v>
+        <v>2.04</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.91</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.81</v>
+        <v>3.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.49</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.08</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.92</v>
+        <v>2.51</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.66</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.68</v>
+        <v>2.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.36</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41567.36111111111</v>
+        <v>44816.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.54</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.05</v>
+        <v>1.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.24</v>
+        <v>3.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.17</v>
+        <v>2.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.71</v>
+        <v>4.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.86</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.2</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>0.65</v>
+        <v>17.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.28</v>
+        <v>3.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.11</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.17</v>
+        <v>2.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.4</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.67</v>
+        <v>4.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41567.36805555555</v>
+        <v>44816.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.11</v>
+        <v>2.4</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.05</v>
+        <v>1.54</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.22</v>
+        <v>4.97</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.16</v>
+        <v>4.12</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.08</v>
+        <v>1.89</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.46</v>
+        <v>13.45</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.13</v>
+        <v>2.91</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.05</v>
+        <v>1.28</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.05</v>
+        <v>1.77</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.09</v>
+        <v>2.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.09</v>
+        <v>2.05</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.62</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.08</v>
+        <v>1.88</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.11</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.09</v>
+        <v>1.76</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.57</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0.53</v>
+        <v>21.38</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.24</v>
+        <v>5.67</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.08</v>
+        <v>1.74</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.14</v>
+        <v>3.75</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.03</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.19</v>
+        <v>5.98</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.08</v>
+        <v>1.7</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.09</v>
+        <v>2.13</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>0.42</v>
+        <v>12.62</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.89</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41567.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41567.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41567.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41567.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41567.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>0.3</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_135.xlsx
+++ b/DATA_goal/Junction_Flooding_135.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44816.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.26</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.75</v>
+        <v>47.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.93</v>
+        <v>39.28</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.88</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.48</v>
+        <v>24.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.16</v>
+        <v>261.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.2</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.26</v>
+        <v>32.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.93</v>
+        <v>29.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.49</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.19</v>
+        <v>51.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44816.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44816.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.47</v>
+        <v>24.66</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.41</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.22</v>
+        <v>32.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q4" s="4" t="n">
+      <c r="S4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>129.97</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.86</v>
+        <v>28.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44816.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.31</v>
+        <v>33.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.58</v>
+        <v>45.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.58</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.36</v>
+        <v>33.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.14</v>
+        <v>41.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_135.xlsx
+++ b/DATA_goal/Junction_Flooding_135.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.54</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.49</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.28</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.77</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.88</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.83</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.73</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.67</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.85</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.62</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.2</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.64</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.03</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.27</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.94</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.49</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.9</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.39</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44816.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.395</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.316</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>2.49</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.08</v>
+        <v>2.081</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.34</v>
+        <v>12.339</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.639</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.033</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.892</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.614</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.255</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.01</v>
+        <v>10.014</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>3.781</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.334</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.276</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.21</v>
+        <v>5.207</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.085</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.64</v>
+        <v>11.637</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="4">
@@ -872,94 +872,94 @@
         <v>1.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.66</v>
+        <v>24.663</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.41</v>
+        <v>20.408</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.17</v>
+        <v>32.174</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.03</v>
+        <v>6.028</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.116</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>9.98</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.37</v>
+        <v>10.371</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.89</v>
+        <v>2.894</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.68</v>
+        <v>12.685</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.75</v>
+        <v>7.752</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.042</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.97</v>
+        <v>129.974</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.06</v>
+        <v>25.056</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.61</v>
+        <v>16.615</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9</v>
+        <v>8.997999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.56</v>
+        <v>15.556</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.644</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.79</v>
+        <v>7.785</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.4</v>
+        <v>10.399</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.58</v>
+        <v>28.577</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.61</v>
+        <v>4.614</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44816.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_135.xlsx
+++ b/DATA_goal/Junction_Flooding_135.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -456,14 +456,14 @@
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -967,46 +967,46 @@
         <v>44816.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.37</v>
+        <v>15.374</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.21</v>
+        <v>11.212</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.13</v>
+        <v>33.129</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.4</v>
+        <v>27.402</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.1</v>
+        <v>12.098</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.76</v>
+        <v>45.763</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.202</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.28</v>
+        <v>12.283</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>13.39</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.99</v>
+        <v>13.992</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.864</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>17.07</v>
@@ -1015,55 +1015,159 @@
         <v>10.2</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.824</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.678</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.79</v>
+        <v>175.793</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.62</v>
+        <v>33.621</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.51</v>
+        <v>22.511</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.02</v>
+        <v>12.022</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.503</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.33</v>
+        <v>22.333</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.75</v>
+        <v>8.754</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.28</v>
+        <v>10.276</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14</v>
+        <v>13.999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.37</v>
+        <v>41.369</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.22</v>
+        <v>6.221</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44816.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_135.xlsx
+++ b/DATA_goal/Junction_Flooding_135.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -456,14 +456,14 @@
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -967,46 +967,46 @@
         <v>44816.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.374</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.212</v>
+        <v>11.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.072</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.129</v>
+        <v>33.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.402</v>
+        <v>27.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.098</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.763</v>
+        <v>45.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.615</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.202</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.283</v>
+        <v>12.28</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>13.39</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.992</v>
+        <v>13.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.031</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>17.07</v>
@@ -1015,159 +1015,55 @@
         <v>10.2</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.824</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.678</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.793</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.621</v>
+        <v>33.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.105</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.511</v>
+        <v>22.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.022</v>
+        <v>12.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.503</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.333</v>
+        <v>22.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.754</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.276</v>
+        <v>10.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.999</v>
+        <v>14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.369</v>
+        <v>41.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.221</v>
+        <v>6.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.884</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44816.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.18</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>
